--- a/src/main/Bdd configuration.xlsx
+++ b/src/main/Bdd configuration.xlsx
@@ -643,7 +643,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.28515625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
